--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OldHarddrive\MVS_file\Sample20190829\DailyTesting\2021\july\2021-07-27\20210827_1\20210827_1\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B27577-646A-412B-8D4B-06C8D401289A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7185BB-F6B8-4C15-BDB6-1081040B099F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="294">
   <si>
     <t>No</t>
   </si>
@@ -926,6 +926,15 @@
   </si>
   <si>
     <t>(SSC11 ) RPA GRD Data duplication find, RPA Daily tasks data verification (Sony, Samsung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2021-07-27)th date RPA Daily tasks data verification (Sony, Samsung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2021-07-28)th date RPA Daily tasks data verification (Sony, Samsung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2021-07-29)th date RPA Daily tasks data verification (Sony, Samsung)</t>
   </si>
 </sst>
 </file>
@@ -1215,15 +1224,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,6 +1237,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2702,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DC3B00-53CF-4270-950A-98916EBE26BC}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3086,13 +3095,13 @@
       <c r="B18" s="4">
         <v>44398</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="3">
@@ -3141,12 +3150,12 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="44"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="28.8">
@@ -3195,40 +3204,109 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="28"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="16" t="s">
+    <row r="24" spans="1:7" ht="28.8">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44405</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44406</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44407</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="15"/>
-      <c r="C26" t="s">
+    <row r="29" spans="1:7">
+      <c r="B29" s="15"/>
+      <c r="C29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="14"/>
-      <c r="C27" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" s="14"/>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="13"/>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="12"/>
-      <c r="C29" t="s">
+    <row r="31" spans="1:7">
+      <c r="B31" s="13"/>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="12"/>
+      <c r="C32" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OldHarddrive\MVS_file\Sample20190829\DailyTesting\2021\july\2021-07-27\20210827_1\20210827_1\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7185BB-F6B8-4C15-BDB6-1081040B099F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEED80-0966-4E59-A0B8-08EBD5D40FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="MAY-2021" sheetId="10" r:id="rId9"/>
     <sheet name="JUNE-2021" sheetId="11" r:id="rId10"/>
     <sheet name="JULY-2021" sheetId="12" r:id="rId11"/>
+    <sheet name="AUG-2021" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="303">
   <si>
     <t>No</t>
   </si>
@@ -935,6 +936,33 @@
   </si>
   <si>
     <t xml:space="preserve"> (2021-07-29)th date RPA Daily tasks data verification (Sony, Samsung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July Monthly tasks data verification (Sony Samsung), </t>
+  </si>
+  <si>
+    <t>Sony Deleverd Set export Record count miss matching (Modification Source code),  RPA Daily tasks data verification (Sony, Samsung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samsung, Sony, QMVAR</t>
+  </si>
+  <si>
+    <t>Selenium log file Testing (QMVAR TO GSPN), QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPA Daily Tasks, QMVAR Weekly Revenue (Verification January Month) </t>
+  </si>
+  <si>
+    <t>QMAVR</t>
+  </si>
+  <si>
+    <t>QMVAR Weekly Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR Weekly Revenue (Verification Febuary,March Month data's), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR Weekly Revenue (Verification Jult Month data's), </t>
   </si>
 </sst>
 </file>
@@ -2713,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DC3B00-53CF-4270-950A-98916EBE26BC}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3314,6 +3342,200 @@
   <mergeCells count="1">
     <mergeCell ref="C18:G18"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F6EACD-9A60-48A4-9255-996ECBC98B22}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44412</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.200000000000003" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44413</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44414</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="15"/>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="14"/>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="13"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="12"/>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEED80-0966-4E59-A0B8-08EBD5D40FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B5283-5C15-4C53-B86F-288A3CD5A1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="308">
   <si>
     <t>No</t>
   </si>
@@ -963,6 +963,21 @@
   </si>
   <si>
     <t xml:space="preserve">QMVAR Weekly Revenue (Verification Jult Month data's), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR Weekly Revenue (Verification Aprin, May Month data's), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR Weekly Revenue (Verification June,July Month data's), </t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet Compare to Weekly Revenue (JAN,Feb)</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet Compare to Weekly Revenue (March,April)</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet Compare to Weekly Revenue (May,June)</t>
   </si>
 </sst>
 </file>
@@ -3348,10 +3363,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F6EACD-9A60-48A4-9255-996ECBC98B22}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3502,36 +3517,151 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" s="16" t="s">
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44417</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44418</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44419</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44420</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44421</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" s="28"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="15"/>
-      <c r="E11" t="s">
+    <row r="16" spans="1:7">
+      <c r="D16" s="15"/>
+      <c r="E16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="14"/>
-      <c r="E12" t="s">
+    <row r="17" spans="4:5">
+      <c r="D17" s="14"/>
+      <c r="E17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="13"/>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="D14" s="12"/>
-      <c r="E14" t="s">
+    <row r="18" spans="4:5">
+      <c r="D18" s="13"/>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="12"/>
+      <c r="E19" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B5283-5C15-4C53-B86F-288A3CD5A1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7BAB6-D87D-4560-A0B5-0379898FEB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="316">
   <si>
     <t>No</t>
   </si>
@@ -978,6 +978,30 @@
   </si>
   <si>
     <t>PL_Tracking_Sheet Compare to Weekly Revenue (May,June)</t>
+  </si>
+  <si>
+    <t>QMVAR Count Drs</t>
+  </si>
+  <si>
+    <t>Actually Count DRS get the values for SC_DSR_Info table, now alter the query to change directly to get the Values SC_DSR table</t>
+  </si>
+  <si>
+    <t>To Verify the Values to Ui, Screen (Delevoped)</t>
+  </si>
+  <si>
+    <t>To Verify the Data in Ui, Screen</t>
+  </si>
+  <si>
+    <t>QMAVR, Muji</t>
+  </si>
+  <si>
+    <t>QMVAR Count Drs, Muji</t>
+  </si>
+  <si>
+    <t>Muji Browser Complatability (Edge),  Query Checking With data's</t>
+  </si>
+  <si>
+    <t>QMVAR PL_Tracking_Sheet</t>
   </si>
 </sst>
 </file>
@@ -3363,10 +3387,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F6EACD-9A60-48A4-9255-996ECBC98B22}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3632,36 +3656,151 @@
         <v>307</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="43.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44424</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44425</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
     <row r="14" spans="1:7">
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="16" t="s">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44426</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44427</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44428</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="E20" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="15"/>
-      <c r="E16" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="15"/>
+      <c r="E21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="14"/>
-      <c r="E17" t="s">
+    <row r="22" spans="4:5">
+      <c r="D22" s="14"/>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="13"/>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="12"/>
-      <c r="E19" t="s">
+    <row r="23" spans="4:5">
+      <c r="D23" s="13"/>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="12"/>
+      <c r="E24" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7BAB6-D87D-4560-A0B5-0379898FEB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BB8ABF-40EC-4820-AAC3-50016FA4BFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="323">
   <si>
     <t>No</t>
   </si>
@@ -1002,6 +1002,27 @@
   </si>
   <si>
     <t>QMVAR PL_Tracking_Sheet</t>
+  </si>
+  <si>
+    <t>To verifying the data's Count Drs to Pl_Tracking Sheet(Qmvar_Live)</t>
+  </si>
+  <si>
+    <t>Muji</t>
+  </si>
+  <si>
+    <t>Edge To Check Video Playing all formats</t>
+  </si>
+  <si>
+    <t>QMVAR Call Load</t>
+  </si>
+  <si>
+    <t>Changes Call Load and PL_Tracking_Sheet Chaecking</t>
+  </si>
+  <si>
+    <t>QMVAR Weekly Graph</t>
+  </si>
+  <si>
+    <t>QMVAR Weekly Graph Template Changes and verify Data</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1312,6 +1333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3387,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F6EACD-9A60-48A4-9255-996ECBC98B22}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3771,36 +3795,159 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="E20" s="16" t="s">
+    <row r="17" spans="1:7">
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44431</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44432</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44433</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44434</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44435</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="E26" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="15"/>
-      <c r="E21" t="s">
+    <row r="27" spans="1:7">
+      <c r="D27" s="15"/>
+      <c r="E27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="14"/>
-      <c r="E22" t="s">
+    <row r="28" spans="1:7">
+      <c r="D28" s="14"/>
+      <c r="E28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="13"/>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="12"/>
-      <c r="E24" t="s">
+    <row r="29" spans="1:7">
+      <c r="D29" s="13"/>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="12"/>
+      <c r="E30" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BB8ABF-40EC-4820-AAC3-50016FA4BFA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC9096-EACA-4A16-8532-563C8D863990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="JUNE-2021" sheetId="11" r:id="rId10"/>
     <sheet name="JULY-2021" sheetId="12" r:id="rId11"/>
     <sheet name="AUG-2021" sheetId="13" r:id="rId12"/>
+    <sheet name="SEP-2021" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="331">
   <si>
     <t>No</t>
   </si>
@@ -1023,6 +1024,30 @@
   </si>
   <si>
     <t>QMVAR Weekly Graph Template Changes and verify Data</t>
+  </si>
+  <si>
+    <t>Mobile View (Issues Fixing)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Weekly Graph</t>
+  </si>
+  <si>
+    <t>Weekly Graph ( 4 template completed )</t>
+  </si>
+  <si>
+    <t>Call Load (4 template completed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR 2.0, PENNA </t>
+  </si>
+  <si>
+    <t>Deploye and Verifying to (Live Server), Penna DB connect and testing</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 (Logs Report)</t>
+  </si>
+  <si>
+    <t>Date Picker not working to Server</t>
   </si>
 </sst>
 </file>
@@ -1325,6 +1350,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,9 +1361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3186,13 +3211,13 @@
       <c r="B18" s="4">
         <v>44398</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="3">
@@ -3413,8 +3438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F6EACD-9A60-48A4-9255-996ECBC98B22}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3822,7 +3847,7 @@
       <c r="F18" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="42" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3868,7 +3893,7 @@
       <c r="F20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="42" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3891,7 +3916,7 @@
       <c r="F21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="42" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3916,6 +3941,52 @@
       </c>
       <c r="G22" s="5" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44438</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44439</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3948,6 +4019,203 @@
     <row r="30" spans="1:7">
       <c r="D30" s="12"/>
       <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C6DDB-BCDE-4112-92FB-3FCC7BAFE7B5}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.8" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44441</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.2" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44442</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="15"/>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="14"/>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="13"/>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="12"/>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC9096-EACA-4A16-8532-563C8D863990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BE97B-7F1E-413D-8A30-64954F9212EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="343">
   <si>
     <t>No</t>
   </si>
@@ -1048,6 +1048,42 @@
   </si>
   <si>
     <t>Date Picker not working to Server</t>
+  </si>
+  <si>
+    <t>Muji Edge browser Video Downloaded (MP4, VOB,MPG,MPEG) all Formats</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, PENNA</t>
+  </si>
+  <si>
+    <t>Rpa Logs (Date Picker not working to Server), PENNA Demo To freshers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR 2.0 </t>
+  </si>
+  <si>
+    <t>Weekly Graph template color Formaing chaging dynamically (wk28,wk30,wk31,wk29)</t>
+  </si>
+  <si>
+    <t>Qmvar 2.0 check live verified all month data's export(Weekly Graph ), Penna server login and source code access</t>
+  </si>
+  <si>
+    <t>Office Leave</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0 Weekly Grsaph</t>
+  </si>
+  <si>
+    <t>Sony Friday Files manually download and upload to qmvar2.0  , Weekly Graph template wk30 SID color chaging issue fixed</t>
+  </si>
+  <si>
+    <t>Mobile View Implementation QMVAR 2.0 Live source code</t>
+  </si>
+  <si>
+    <t>PENNA</t>
+  </si>
+  <si>
+    <t>PENNA CR</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,8 +1187,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1249,11 +1291,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1360,6 +1420,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4029,10 +4108,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C6DDB-BCDE-4112-92FB-3FCC7BAFE7B5}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4145,81 +4224,254 @@
       <c r="F5" s="35"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="8"/>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44445</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44446</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44447</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44448</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="16" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44449</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" ht="57.6">
+      <c r="A11" s="49">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44452</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44453</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44454</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44455</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44456</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="15"/>
-      <c r="D14" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="15"/>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="14"/>
-      <c r="D15" t="s">
+    <row r="19" spans="3:4">
+      <c r="C19" s="14"/>
+      <c r="D19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="13"/>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="12"/>
-      <c r="D17" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="13"/>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="12"/>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C14:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BE97B-7F1E-413D-8A30-64954F9212EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B960093-2D4B-4D91-AD78-B69EBF518BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="347">
   <si>
     <t>No</t>
   </si>
@@ -1084,6 +1084,18 @@
   </si>
   <si>
     <t>PENNA CR</t>
+  </si>
+  <si>
+    <t>Mobile View Issues Fixing  QMVAR 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR 2.0 , PENNA </t>
+  </si>
+  <si>
+    <t>Mobile View Issues Fixing  QMVAR 2.0, PENNA CR</t>
+  </si>
+  <si>
+    <t>Mobile View Design Changes verification QMVAR 2.0 Live source code</t>
   </si>
 </sst>
 </file>
@@ -1413,6 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1431,7 +1444,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3290,13 +3302,13 @@
       <c r="B18" s="4">
         <v>44398</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="3">
@@ -4108,10 +4120,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C6DDB-BCDE-4112-92FB-3FCC7BAFE7B5}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4323,16 +4335,16 @@
       <c r="B10" s="4">
         <v>44449</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" ht="57.6">
-      <c r="A11" s="49">
+      <c r="A11" s="43">
         <v>9</v>
       </c>
       <c r="B11" s="4">
@@ -4438,32 +4450,155 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="D17" s="16" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44459</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44460</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44461</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44462</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44463</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="15"/>
-      <c r="D18" t="s">
+    <row r="24" spans="1:7">
+      <c r="C24" s="15"/>
+      <c r="D24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="14"/>
-      <c r="D19" t="s">
+    <row r="25" spans="1:7">
+      <c r="C25" s="14"/>
+      <c r="D25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="13"/>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="12"/>
-      <c r="D21" t="s">
+    <row r="26" spans="1:7">
+      <c r="C26" s="13"/>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="12"/>
+      <c r="D27" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B960093-2D4B-4D91-AD78-B69EBF518BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EAC3D4-F985-4648-B87B-1408216FBE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="JULY-2021" sheetId="12" r:id="rId11"/>
     <sheet name="AUG-2021" sheetId="13" r:id="rId12"/>
     <sheet name="SEP-2021" sheetId="14" r:id="rId13"/>
+    <sheet name="OCT-2021" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="366">
   <si>
     <t>No</t>
   </si>
@@ -1096,6 +1097,63 @@
   </si>
   <si>
     <t>Mobile View Design Changes verification QMVAR 2.0 Live source code</t>
+  </si>
+  <si>
+    <t>Assign User Role qmvar 2.0</t>
+  </si>
+  <si>
+    <t>working javascript Issue and find error log report</t>
+  </si>
+  <si>
+    <t>PENNA, QMVAR</t>
+  </si>
+  <si>
+    <t>qmvar drs file upload issue CHECKING</t>
+  </si>
+  <si>
+    <t>MJA,PENNA, QMVAR</t>
+  </si>
+  <si>
+    <t>qmvar saw discount rpa upload issues, jobseeker page design(30% completed)</t>
+  </si>
+  <si>
+    <t>penna cr(test certificate)</t>
+  </si>
+  <si>
+    <t>PENNA,MUJI</t>
+  </si>
+  <si>
+    <t>PENNA, MUJI</t>
+  </si>
+  <si>
+    <t>PENNA, Nmvar</t>
+  </si>
+  <si>
+    <t>Nmavr CR</t>
+  </si>
+  <si>
+    <t>nMVAR, QMVAR</t>
+  </si>
+  <si>
+    <t>Nmvar (CR), PR_SUMMARY, Details count checking manually(all centers)</t>
+  </si>
+  <si>
+    <t>Penna database and code checking, invoice update PDF checking</t>
+  </si>
+  <si>
+    <t>Muji, QMVAR</t>
+  </si>
+  <si>
+    <t>Muji Store Cocument Modification, Goods receicing Summary, Details qmvar Unable to export checking</t>
+  </si>
+  <si>
+    <t>Penna cr(test certificate) Modification (CR)</t>
+  </si>
+  <si>
+    <t>Penna cr(test certificate), PR_SUMMARY, PR_DETAILS data missmatching locally testing</t>
+  </si>
+  <si>
+    <t>Penna cr(test certificate)</t>
   </si>
 </sst>
 </file>
@@ -4120,10 +4178,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C6DDB-BCDE-4112-92FB-3FCC7BAFE7B5}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4573,32 +4631,132 @@
       <c r="F21" s="25"/>
       <c r="G21" s="24"/>
     </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44466</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
     <row r="23" spans="1:7">
-      <c r="D23" s="16" t="s">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44467</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44468</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44469</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="15"/>
-      <c r="D24" t="s">
+    <row r="29" spans="1:7">
+      <c r="C29" s="15"/>
+      <c r="D29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="14"/>
-      <c r="D25" t="s">
+    <row r="30" spans="1:7">
+      <c r="C30" s="14"/>
+      <c r="D30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="13"/>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="12"/>
-      <c r="D27" t="s">
+    <row r="31" spans="1:7">
+      <c r="C31" s="13"/>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="12"/>
+      <c r="D32" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4607,6 +4765,288 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C14:G14"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157960B3-8962-42CE-A432-906648A610AE}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44473</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44474</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44475</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.4" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44476</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44477</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.8" customHeight="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44480</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44481</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44482</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="15"/>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="14"/>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="13"/>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="12"/>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EAC3D4-F985-4648-B87B-1408216FBE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4333CD73-2BA2-4E45-93DA-A3E911D89C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="370">
   <si>
     <t>No</t>
   </si>
@@ -1117,9 +1117,6 @@
     <t>qmvar saw discount rpa upload issues, jobseeker page design(30% completed)</t>
   </si>
   <si>
-    <t>penna cr(test certificate)</t>
-  </si>
-  <si>
     <t>PENNA,MUJI</t>
   </si>
   <si>
@@ -1154,6 +1151,21 @@
   </si>
   <si>
     <t>Penna cr(test certificate)</t>
+  </si>
+  <si>
+    <t>penna clinker test certificate html design Working</t>
+  </si>
+  <si>
+    <t>penna clinker test certificate (Submit View) completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muji </t>
+  </si>
+  <si>
+    <t>Muji Document create(Foler, Store Group, User Edit)</t>
+  </si>
+  <si>
+    <t>Muji Document create (Administrator, Change password)</t>
   </si>
 </sst>
 </file>
@@ -4771,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157960B3-8962-42CE-A432-906648A610AE}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4853,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
@@ -4876,7 +4888,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
@@ -4899,7 +4911,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.4" customHeight="1">
@@ -4910,11 +4922,11 @@
         <v>44476</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="E7" s="23">
         <v>1</v>
       </c>
@@ -4922,7 +4934,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1">
@@ -4933,19 +4945,19 @@
         <v>44477</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.8" customHeight="1">
@@ -4956,19 +4968,19 @@
         <v>44480</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.4" customHeight="1">
@@ -4991,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34.799999999999997" customHeight="1">
@@ -5002,47 +5014,171 @@
         <v>44482</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>362</v>
-      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44487</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44488</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44489</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44490</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44491</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="E20" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="D15" s="15"/>
-      <c r="E15" t="s">
+    <row r="21" spans="1:7">
+      <c r="D21" s="15"/>
+      <c r="E21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="14"/>
-      <c r="E16" t="s">
+    <row r="22" spans="1:7">
+      <c r="D22" s="14"/>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="13"/>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="12"/>
-      <c r="E18" t="s">
+    <row r="23" spans="1:7">
+      <c r="D23" s="13"/>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="12"/>
+      <c r="E24" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4333CD73-2BA2-4E45-93DA-A3E911D89C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C611D43-B312-48F9-8DBD-EDA41890C02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="375">
   <si>
     <t>No</t>
   </si>
@@ -1166,6 +1166,21 @@
   </si>
   <si>
     <t>Muji Document create (Administrator, Change password)</t>
+  </si>
+  <si>
+    <t>Monitering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR (sony file upload issue 124 unrepair set &amp; 119 Received Set), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR2.0 (Data verification Sony, Samsung), </t>
+  </si>
+  <si>
+    <t>Admin role checking</t>
+  </si>
+  <si>
+    <t>Clinker Testing test Cirtificate</t>
   </si>
 </sst>
 </file>
@@ -4783,10 +4798,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157960B3-8962-42CE-A432-906648A610AE}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5153,32 +5168,147 @@
         <v>369</v>
       </c>
     </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44494</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
     <row r="20" spans="1:7">
-      <c r="E20" s="16" t="s">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44495</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44496</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44497</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44498</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="E25" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="D21" s="15"/>
-      <c r="E21" t="s">
+    <row r="26" spans="1:7">
+      <c r="D26" s="15"/>
+      <c r="E26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="D22" s="14"/>
-      <c r="E22" t="s">
+    <row r="27" spans="1:7">
+      <c r="D27" s="14"/>
+      <c r="E27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="D23" s="13"/>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="D24" s="12"/>
-      <c r="E24" t="s">
+    <row r="28" spans="1:7">
+      <c r="D28" s="13"/>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="12"/>
+      <c r="E29" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C611D43-B312-48F9-8DBD-EDA41890C02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56D5BB-6C8F-4287-8134-3A6C9BB522EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="AUG-2021" sheetId="13" r:id="rId12"/>
     <sheet name="SEP-2021" sheetId="14" r:id="rId13"/>
     <sheet name="OCT-2021" sheetId="15" r:id="rId14"/>
+    <sheet name="NOV-2021" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="383">
   <si>
     <t>No</t>
   </si>
@@ -1181,6 +1182,30 @@
   </si>
   <si>
     <t>Clinker Testing test Cirtificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October Monthly tasks data verification (Sony Samsung), </t>
+  </si>
+  <si>
+    <t>SAW discount SSC11 upload failed to QMVAR (check and Clear)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data verification (Sony Samsung), </t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Penna</t>
+  </si>
+  <si>
+    <t>penna,QMVAR2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna ApI, QMVAR2.0 (Data verification Sony, Samsung), </t>
+  </si>
+  <si>
+    <t>penna,QMVAR2.0,Nmvar</t>
+  </si>
+  <si>
+    <t>QMVAR2.0 (Data verification Sony, Samsung), Nmvar cr</t>
   </si>
 </sst>
 </file>
@@ -4800,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157960B3-8962-42CE-A432-906648A610AE}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5309,6 +5334,276 @@
     <row r="29" spans="1:7">
       <c r="D29" s="12"/>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46745677-F9E3-40E0-BC9A-5A9C3E630B1A}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44502</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44503</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44508</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44509</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44510</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44511</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44512</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="15"/>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="14"/>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="13"/>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="12"/>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56D5BB-6C8F-4287-8134-3A6C9BB522EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65316F7-F2DC-4DBC-9D25-6DE778B855E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="388">
   <si>
     <t>No</t>
   </si>
@@ -1206,6 +1206,21 @@
   </si>
   <si>
     <t>QMVAR2.0 (Data verification Sony, Samsung), Nmvar cr</t>
+  </si>
+  <si>
+    <t>Apple Inventry (Apple Grid view)</t>
+  </si>
+  <si>
+    <t>Apple Inventry (Add Record)</t>
+  </si>
+  <si>
+    <t>Apple Inventry (Edit, View)</t>
+  </si>
+  <si>
+    <t>Apple Inventry (Delete, Design Working)</t>
+  </si>
+  <si>
+    <t>Apple Inventry (button Click Commite Chenages Working)</t>
   </si>
 </sst>
 </file>
@@ -5344,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46745677-F9E3-40E0-BC9A-5A9C3E630B1A}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5576,34 +5591,149 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44515</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="C13" s="15"/>
-      <c r="D13" t="s">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44516</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44517</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44518</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44519</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="15"/>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="14"/>
-      <c r="D14" t="s">
+    <row r="19" spans="2:7">
+      <c r="C19" s="14"/>
+      <c r="D19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="13"/>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="12"/>
-      <c r="D16" t="s">
+    <row r="20" spans="2:7">
+      <c r="C20" s="13"/>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" s="12"/>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65316F7-F2DC-4DBC-9D25-6DE778B855E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E3A77-EEFB-4642-8761-985D2618B2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1221,6 +1221,18 @@
   </si>
   <si>
     <t>Apple Inventry (button Click Commite Chenages Working)</t>
+  </si>
+  <si>
+    <t>Apple Parts Stock (Apple Grid view)</t>
+  </si>
+  <si>
+    <t>Apple Parts Stock (Add Record), hod role, clinker code move to PROD server</t>
+  </si>
+  <si>
+    <t>Apple Parts Stock (Design Cheanges)</t>
+  </si>
+  <si>
+    <t>Apple Parts Stock (Sorting, searching)</t>
   </si>
 </sst>
 </file>
@@ -5359,10 +5371,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46745677-F9E3-40E0-BC9A-5A9C3E630B1A}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5705,35 +5717,159 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="28"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" s="15"/>
-      <c r="D18" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44522</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44523</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44524</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44525</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44526</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="15"/>
+      <c r="D24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="C19" s="14"/>
-      <c r="D19" t="s">
+    <row r="25" spans="1:7">
+      <c r="C25" s="14"/>
+      <c r="D25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="C20" s="13"/>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" s="12"/>
-      <c r="D21" t="s">
+    <row r="26" spans="1:7">
+      <c r="C26" s="13"/>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="12"/>
+      <c r="D27" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E3A77-EEFB-4642-8761-985D2618B2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668465F-BF63-4FF1-B33A-9E49100C0291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="15" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="SEP-2021" sheetId="14" r:id="rId13"/>
     <sheet name="OCT-2021" sheetId="15" r:id="rId14"/>
     <sheet name="NOV-2021" sheetId="16" r:id="rId15"/>
+    <sheet name="DEC-2021" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="408">
   <si>
     <t>No</t>
   </si>
@@ -1233,6 +1234,54 @@
   </si>
   <si>
     <t>Apple Parts Stock (Sorting, searching)</t>
+  </si>
+  <si>
+    <t>Change Request (Apple Parts Entry)</t>
+  </si>
+  <si>
+    <t>Change Request (Apple Parts Grid)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0,  Samsung, Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Parts Stock (Change Request),  November Monthly tasks data verification (Sony Samsung), </t>
+  </si>
+  <si>
+    <t>ACC Parts Management (Create), Saw Uploading issue csv (QMVAR2.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACC Parts Management (Update,Search), </t>
+  </si>
+  <si>
+    <t>Apple AC Stock Transaction (ACC Grid view, ADD)</t>
+  </si>
+  <si>
+    <t>Apple AC Stock Transaction (Excel Export,Edit)</t>
+  </si>
+  <si>
+    <t>Apple AC Stock Create (ACC Grid view,Add)</t>
+  </si>
+  <si>
+    <t>Apple AC Stock Create (Excel Export,Edit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple AC Stock Transaction, Apple AC Stock Create (Search,Sorting) </t>
+  </si>
+  <si>
+    <t>Parts Entry design changes</t>
+  </si>
+  <si>
+    <t>Search and Sort (Parts Entry Grid, Apple AC Stock Transaction)</t>
+  </si>
+  <si>
+    <t>Expiration Notice</t>
+  </si>
+  <si>
+    <t>Master page, Main page</t>
+  </si>
+  <si>
+    <t>nQGCAR</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1589,6 +1638,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5371,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46745677-F9E3-40E0-BC9A-5A9C3E630B1A}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5842,34 +5894,475 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="28"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="15"/>
-      <c r="D24" t="s">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44529</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44530</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="41"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="15"/>
+      <c r="D28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="14"/>
-      <c r="D25" t="s">
+    <row r="29" spans="1:7">
+      <c r="C29" s="14"/>
+      <c r="D29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="13"/>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="12"/>
-      <c r="D27" t="s">
+    <row r="30" spans="1:7">
+      <c r="C30" s="13"/>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="12"/>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA5BFB-7B67-4867-BFB2-A0B146802881}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44532</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44533</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44536</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44537</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44538</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44539</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44540</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44543</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44544</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44545</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44546</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44547</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="15"/>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="14"/>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="13"/>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="12"/>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Rever_DailyTracker_PRABU.xlsx
+++ b/Rever_DailyTracker_PRABU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668465F-BF63-4FF1-B33A-9E49100C0291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E30690-461D-43AE-A678-2A7A221B87AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="15" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{A048B7B0-3B91-4EE4-9E0E-ED9E03851510}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="5" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="OCT-2021" sheetId="15" r:id="rId14"/>
     <sheet name="NOV-2021" sheetId="16" r:id="rId15"/>
     <sheet name="DEC-2021" sheetId="17" r:id="rId16"/>
+    <sheet name="JAN-2022" sheetId="18" r:id="rId17"/>
+    <sheet name="FEB-2022" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="459">
   <si>
     <t>No</t>
   </si>
@@ -1283,12 +1285,165 @@
   <si>
     <t>nQGCAR</t>
   </si>
+  <si>
+    <t>nQGCARE</t>
+  </si>
+  <si>
+    <t>Search Screen(Funcatioality 30% Completed)</t>
+  </si>
+  <si>
+    <t>Contract Input Screen (Design Completed)</t>
+  </si>
+  <si>
+    <t>Report Page (Design Completed)</t>
+  </si>
+  <si>
+    <t>Search Screen(Funcatioality 100% Completed)</t>
+  </si>
+  <si>
+    <t>Contract Input Screen (Edit Functionality Completed)</t>
+  </si>
+  <si>
+    <t>Search Screen (Import Function 40%)</t>
+  </si>
+  <si>
+    <t>Search Screen (Import Function 80%)</t>
+  </si>
+  <si>
+    <t>Blocker Issues Fixed</t>
+  </si>
+  <si>
+    <t>Contract Management</t>
+  </si>
+  <si>
+    <t>Regression Issues Fixed</t>
+  </si>
+  <si>
+    <t>Change Request (Reports)</t>
+  </si>
+  <si>
+    <t>WEEK 2ND</t>
+  </si>
+  <si>
+    <t>Apple App Inventry</t>
+  </si>
+  <si>
+    <t>APP Parts Entry (Add Data, Page Design Working )</t>
+  </si>
+  <si>
+    <t>Change Request (Reports R_Kanyu_iPad.rpx)</t>
+  </si>
+  <si>
+    <t>Edit Data, Page Design Working</t>
+  </si>
+  <si>
+    <t>Apple App Inventory Grid (Insert, Design Working)</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>WEEK 3RD</t>
+  </si>
+  <si>
+    <t>APP Parts Management (Grid, Searching, Sorting)</t>
+  </si>
+  <si>
+    <t>APP Parts Management (Excel Export)</t>
+  </si>
+  <si>
+    <t>APP Parts Management (Add New Parts)</t>
+  </si>
+  <si>
+    <t>WEEK 4TH</t>
+  </si>
+  <si>
+    <t>Apple APP Stock Transaction (Grid, Searching, Sorting)</t>
+  </si>
+  <si>
+    <t>Apple APP Stock Transaction (Excel Export, Change Request Working)</t>
+  </si>
+  <si>
+    <t>Apple APP Stock Transaction (Change Request Working)</t>
+  </si>
+  <si>
+    <t>Apple ACC Inventry</t>
+  </si>
+  <si>
+    <t>Apple_AC_Stock_Transaction (Change Request Working(Update Duplicate Data Issue))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple ACC Inventry, Selenium log file Testing (QMVAR TO GSPN), </t>
+  </si>
+  <si>
+    <t>Apple_AC_Stock_Transaction (Change Request Working Database get value Changes), 2022, January Monthly tasks data verification (Sony Samsung), Holidays update QMVAR 2.0 Server (ALL SERVICE CENTERS)</t>
+  </si>
+  <si>
+    <t>Apple Parts Entry (Testing Functionality locally)</t>
+  </si>
+  <si>
+    <t>nMVAR, Samsung</t>
+  </si>
+  <si>
+    <t>nMVAR, QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>nMVAR Change Request (Report) Issue Fixed, Parts_IO_Monthly Export Issue Checking Locally</t>
+  </si>
+  <si>
+    <t>nQGCARE, QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>Apple_Customer_Information.aspx (Design Changes), nQGCARE Change Request (Report Testing locally) Issue Fixed</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Samsung</t>
+  </si>
+  <si>
+    <t>January Month PL_Tracking_Sheet data Miss matching checking, Parts_IO_Monthly Export Issue Code Changes (Issue Fixed)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Samsung (PL_Tracking_Sheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_Tracking_Sheet CR check to Server (Sony SID, Samsung)  2021,2022 year datas, Apple APP Inventry (Testing Functionality to Server) </t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year datas Verification, Samsung Tasks Manually download GSPN upload to QMVAR2.0 (DRS, Warranty, PR_Summary, GR_Summary, PO_Confirmation, SERVICE_ORDER_CANCELLED_DAILY)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Samsung, Sony, nQGCARE</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year datas Verification, Samsung Tasks Manually download GSPN upload to QMVAR2.0 , nQGCARE CR(Export CSV File)</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year datas Verification, Apple_Customer_Information page (Change request) working QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year data's Verification,  PL_Tracking_Sheet value miss matching (Febuary month) Check code in locally</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year data's Verification,  Apple APP Inventry (Testing Functionality locally)</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Samsung, Sony,nMVAR&amp;nQGCARE</t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year data's Verification,  nMVAR&amp;nQGCARE Source code Consolidate and checking locally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_Tracking_Sheet (Sony SID, Samsung)  2022 year data's Verification,  SERVICE_ORDER_PENDING Import </t>
+  </si>
+  <si>
+    <t>PL_Tracking_Sheet (Sony SID, Samsung)  2022 year data's Verification,  SERVICE_ORDER_PENDING Export</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,8 +1484,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1388,6 +1548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1612,6 +1778,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1639,8 +1808,59 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3491,13 +3711,13 @@
       <c r="B18" s="4">
         <v>44398</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="3">
@@ -4524,13 +4744,13 @@
       <c r="B10" s="4">
         <v>44449</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="57.6">
       <c r="A11" s="43">
@@ -4608,13 +4828,13 @@
       <c r="B14" s="4">
         <v>44455</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
@@ -5900,7 +6120,7 @@
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="53"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
@@ -5955,7 +6175,7 @@
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="53"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="28"/>
@@ -5996,10 +6216,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA5BFB-7B67-4867-BFB2-A0B146802881}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6342,28 +6562,1153 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="15"/>
-      <c r="D18" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44550</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44551</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44552</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44553</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44554</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.8">
+      <c r="A24" s="58">
+        <v>19</v>
+      </c>
+      <c r="B24" s="55">
+        <v>44557</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E24" s="57">
+        <v>1</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8">
+      <c r="A25" s="58">
+        <v>20</v>
+      </c>
+      <c r="B25" s="55">
+        <v>44558</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E25" s="57">
+        <v>1</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8">
+      <c r="A26" s="58">
+        <v>21</v>
+      </c>
+      <c r="B26" s="55">
+        <v>44559</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="57">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8">
+      <c r="A27" s="58">
+        <v>22</v>
+      </c>
+      <c r="B27" s="55">
+        <v>44560</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8">
+      <c r="A28" s="58">
+        <v>23</v>
+      </c>
+      <c r="B28" s="55">
+        <v>44561</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="70"/>
+      <c r="D31" s="60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="14"/>
-      <c r="D19" t="s">
+    <row r="32" spans="1:7">
+      <c r="C32" s="69"/>
+      <c r="D32" s="60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="13"/>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="12"/>
-      <c r="D21" t="s">
+    <row r="33" spans="3:4">
+      <c r="C33" s="68"/>
+      <c r="D33" s="60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="67"/>
+      <c r="D34" s="60" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB318B7E-F057-467C-907B-A770A9844B16}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="60" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="60" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" style="60" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64">
+        <v>44564</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="71">
+        <v>1</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64">
+        <v>44565</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="71">
+        <v>1</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64">
+        <v>44566</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="64">
+        <v>44567</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="71">
+        <v>1</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="71">
+        <v>1</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="64">
+        <v>44571</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="71">
+        <v>1</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="63">
+        <v>7</v>
+      </c>
+      <c r="B9" s="64">
+        <v>44572</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="71">
+        <v>1</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="64">
+        <v>44573</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="71">
+        <v>1</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64">
+        <v>44574</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="71">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="63">
+        <v>10</v>
+      </c>
+      <c r="B12" s="64">
+        <v>44575</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="63">
+        <v>11</v>
+      </c>
+      <c r="B14" s="64">
+        <v>44578</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="63">
+        <v>12</v>
+      </c>
+      <c r="B15" s="64">
+        <v>44579</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="63">
+        <v>13</v>
+      </c>
+      <c r="B16" s="64">
+        <v>44580</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="71">
+        <v>1</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="63">
+        <v>14</v>
+      </c>
+      <c r="B17" s="64">
+        <v>44581</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="71">
+        <v>1</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="63">
+        <v>15</v>
+      </c>
+      <c r="B18" s="64">
+        <v>44582</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="71">
+        <v>1</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="D19" s="72" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="63">
+        <v>16</v>
+      </c>
+      <c r="B20" s="64">
+        <v>44585</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" s="71">
+        <v>1</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="63">
+        <v>17</v>
+      </c>
+      <c r="B21" s="64">
+        <v>44586</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="63">
+        <v>18</v>
+      </c>
+      <c r="B22" s="64">
+        <v>44587</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.4">
+      <c r="A23" s="63">
+        <v>19</v>
+      </c>
+      <c r="B23" s="64">
+        <v>44588</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="71">
+        <v>1</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="63">
+        <v>20</v>
+      </c>
+      <c r="B24" s="64">
+        <v>44589</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="71">
+        <v>1</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.4">
+      <c r="A26" s="63">
+        <v>21</v>
+      </c>
+      <c r="B26" s="64">
+        <v>44592</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="71">
+        <v>1</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151011AA-D880-4EC6-AEA7-AB5E09E266EC}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="60" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="35" style="60" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="45.21875" style="60" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="52.8">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64">
+        <v>44593</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="71">
+        <v>1</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64">
+        <v>44594</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="71">
+        <v>1</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64">
+        <v>44595</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="64">
+        <v>44596</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="71">
+        <v>1</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="63">
+        <v>5</v>
+      </c>
+      <c r="B7" s="64">
+        <v>44599</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="E7" s="71">
+        <v>1</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="64">
+        <v>44600</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" s="71">
+        <v>1</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4">
+      <c r="A9" s="63">
+        <v>7</v>
+      </c>
+      <c r="B9" s="64">
+        <v>44601</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="71">
+        <v>1</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57.6">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="64">
+        <v>44602</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="71">
+        <v>1</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="64">
+        <v>44603</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="71">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2">
+      <c r="A13" s="63">
+        <v>10</v>
+      </c>
+      <c r="B13" s="64">
+        <v>44606</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="71">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2">
+      <c r="A14" s="63">
+        <v>11</v>
+      </c>
+      <c r="B14" s="64">
+        <v>44607</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="71">
+        <v>1</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2">
+      <c r="A15" s="63">
+        <v>12</v>
+      </c>
+      <c r="B15" s="64">
+        <v>44608</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" s="71">
+        <v>1</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="63">
+        <v>13</v>
+      </c>
+      <c r="B16" s="64">
+        <v>44609</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="71">
+        <v>1</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2">
+      <c r="A17" s="63">
+        <v>14</v>
+      </c>
+      <c r="B17" s="64">
+        <v>44610</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="71">
+        <v>1</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
